--- a/WebRoot/static/template/budget/銷售成本預算表.xlsx
+++ b/WebRoot/static/template/budget/銷售成本預算表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="41">
   <si>
     <t>產品料號</t>
   </si>
@@ -621,8 +621,8 @@
   <dimension ref="A1:HR1261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -721,7 +721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:226" s="2" customFormat="1" ht="15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -979,9 +979,7 @@
       <c r="HR1" s="9"/>
     </row>
     <row r="2" spans="1:226" s="2" customFormat="1" ht="15">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="A2" s="13"/>
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
@@ -1331,7 +1329,7 @@
       <c r="HR2" s="9"/>
     </row>
     <row r="3" spans="1:226" s="2" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A3" s="10"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>

--- a/WebRoot/static/template/budget/銷售成本預算表.xlsx
+++ b/WebRoot/static/template/budget/銷售成本預算表.xlsx
@@ -132,9 +132,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Main Bussiness</t>
-  </si>
-  <si>
     <t>3+3</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>最終客戶</t>
+  </si>
+  <si>
+    <t>三大技術</t>
   </si>
 </sst>
 </file>
@@ -312,8 +312,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -324,16 +332,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -631,8 +631,8 @@
   <cols>
     <col min="1" max="2" width="14.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="7.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="5" customWidth="1"/>
     <col min="8" max="10" width="9.109375" style="5" bestFit="1" customWidth="1"/>
@@ -721,624 +721,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:226" s="2" customFormat="1" ht="15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="11"/>
-      <c r="CK1" s="11"/>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="11"/>
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="11"/>
-      <c r="DU1" s="11"/>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="11"/>
-      <c r="EM1" s="11"/>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="11"/>
-      <c r="FE1" s="11"/>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="11"/>
-      <c r="FW1" s="11"/>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13"/>
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13"/>
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13"/>
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13"/>
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GJ1" s="9"/>
-      <c r="GK1" s="9"/>
-      <c r="GL1" s="9"/>
-      <c r="GM1" s="9"/>
-      <c r="GN1" s="9"/>
-      <c r="GO1" s="9"/>
-      <c r="GP1" s="9"/>
-      <c r="GQ1" s="9"/>
-      <c r="GR1" s="9" t="s">
+      <c r="GJ1" s="14"/>
+      <c r="GK1" s="14"/>
+      <c r="GL1" s="14"/>
+      <c r="GM1" s="14"/>
+      <c r="GN1" s="14"/>
+      <c r="GO1" s="14"/>
+      <c r="GP1" s="14"/>
+      <c r="GQ1" s="14"/>
+      <c r="GR1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="GS1" s="9"/>
-      <c r="GT1" s="9"/>
-      <c r="GU1" s="9"/>
-      <c r="GV1" s="9"/>
-      <c r="GW1" s="9"/>
-      <c r="GX1" s="9"/>
-      <c r="GY1" s="9"/>
-      <c r="GZ1" s="9"/>
-      <c r="HA1" s="9" t="s">
+      <c r="GS1" s="14"/>
+      <c r="GT1" s="14"/>
+      <c r="GU1" s="14"/>
+      <c r="GV1" s="14"/>
+      <c r="GW1" s="14"/>
+      <c r="GX1" s="14"/>
+      <c r="GY1" s="14"/>
+      <c r="GZ1" s="14"/>
+      <c r="HA1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="HB1" s="9"/>
-      <c r="HC1" s="9"/>
-      <c r="HD1" s="9"/>
-      <c r="HE1" s="9"/>
-      <c r="HF1" s="9"/>
-      <c r="HG1" s="9"/>
-      <c r="HH1" s="9"/>
-      <c r="HI1" s="9"/>
-      <c r="HJ1" s="9" t="s">
+      <c r="HB1" s="14"/>
+      <c r="HC1" s="14"/>
+      <c r="HD1" s="14"/>
+      <c r="HE1" s="14"/>
+      <c r="HF1" s="14"/>
+      <c r="HG1" s="14"/>
+      <c r="HH1" s="14"/>
+      <c r="HI1" s="14"/>
+      <c r="HJ1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="HK1" s="9"/>
-      <c r="HL1" s="9"/>
-      <c r="HM1" s="9"/>
-      <c r="HN1" s="9"/>
-      <c r="HO1" s="9"/>
-      <c r="HP1" s="9"/>
-      <c r="HQ1" s="9"/>
-      <c r="HR1" s="9"/>
+      <c r="HK1" s="14"/>
+      <c r="HL1" s="14"/>
+      <c r="HM1" s="14"/>
+      <c r="HN1" s="14"/>
+      <c r="HO1" s="14"/>
+      <c r="HP1" s="14"/>
+      <c r="HQ1" s="14"/>
+      <c r="HR1" s="14"/>
     </row>
     <row r="2" spans="1:226" s="2" customFormat="1" ht="15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9" t="s">
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9" t="s">
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9" t="s">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9" t="s">
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9" t="s">
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9" t="s">
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9" t="s">
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9" t="s">
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9" t="s">
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9" t="s">
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9" t="s">
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9" t="s">
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9" t="s">
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9" t="s">
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9" t="s">
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9" t="s">
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9" t="s">
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9" t="s">
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9" t="s">
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9" t="s">
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9" t="s">
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9" t="s">
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9" t="s">
+      <c r="BT2" s="14"/>
+      <c r="BU2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9" t="s">
+      <c r="BV2" s="14"/>
+      <c r="BW2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9" t="s">
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="BZ2" s="9"/>
-      <c r="CA2" s="9" t="s">
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="CB2" s="9"/>
-      <c r="CC2" s="9" t="s">
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="CD2" s="9"/>
-      <c r="CE2" s="9" t="s">
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="CF2" s="9"/>
-      <c r="CG2" s="9"/>
-      <c r="CH2" s="9"/>
-      <c r="CI2" s="9" t="s">
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="CJ2" s="9"/>
-      <c r="CK2" s="9"/>
-      <c r="CL2" s="9"/>
-      <c r="CM2" s="9" t="s">
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="CN2" s="9"/>
-      <c r="CO2" s="9"/>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="9" t="s">
+      <c r="CN2" s="14"/>
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="CR2" s="9"/>
-      <c r="CS2" s="9"/>
-      <c r="CT2" s="9"/>
-      <c r="CU2" s="9" t="s">
+      <c r="CR2" s="14"/>
+      <c r="CS2" s="14"/>
+      <c r="CT2" s="14"/>
+      <c r="CU2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="CV2" s="9"/>
-      <c r="CW2" s="9"/>
-      <c r="CX2" s="9"/>
-      <c r="CY2" s="9" t="s">
+      <c r="CV2" s="14"/>
+      <c r="CW2" s="14"/>
+      <c r="CX2" s="14"/>
+      <c r="CY2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="CZ2" s="9"/>
-      <c r="DA2" s="9"/>
-      <c r="DB2" s="9"/>
-      <c r="DC2" s="9" t="s">
+      <c r="CZ2" s="14"/>
+      <c r="DA2" s="14"/>
+      <c r="DB2" s="14"/>
+      <c r="DC2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="DD2" s="9"/>
-      <c r="DE2" s="9"/>
-      <c r="DF2" s="9"/>
-      <c r="DG2" s="9" t="s">
+      <c r="DD2" s="14"/>
+      <c r="DE2" s="14"/>
+      <c r="DF2" s="14"/>
+      <c r="DG2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="DH2" s="9"/>
-      <c r="DI2" s="9"/>
-      <c r="DJ2" s="9"/>
-      <c r="DK2" s="9" t="s">
+      <c r="DH2" s="14"/>
+      <c r="DI2" s="14"/>
+      <c r="DJ2" s="14"/>
+      <c r="DK2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="DL2" s="9"/>
-      <c r="DM2" s="9"/>
-      <c r="DN2" s="9"/>
-      <c r="DO2" s="9" t="s">
+      <c r="DL2" s="14"/>
+      <c r="DM2" s="14"/>
+      <c r="DN2" s="14"/>
+      <c r="DO2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="DP2" s="9"/>
-      <c r="DQ2" s="9"/>
-      <c r="DR2" s="9"/>
-      <c r="DS2" s="9" t="s">
+      <c r="DP2" s="14"/>
+      <c r="DQ2" s="14"/>
+      <c r="DR2" s="14"/>
+      <c r="DS2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="DT2" s="9"/>
-      <c r="DU2" s="9"/>
-      <c r="DV2" s="9"/>
-      <c r="DW2" s="9" t="s">
+      <c r="DT2" s="14"/>
+      <c r="DU2" s="14"/>
+      <c r="DV2" s="14"/>
+      <c r="DW2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="DX2" s="9"/>
-      <c r="DY2" s="9"/>
-      <c r="DZ2" s="9"/>
-      <c r="EA2" s="9" t="s">
+      <c r="DX2" s="14"/>
+      <c r="DY2" s="14"/>
+      <c r="DZ2" s="14"/>
+      <c r="EA2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="EB2" s="9"/>
-      <c r="EC2" s="9"/>
-      <c r="ED2" s="9"/>
-      <c r="EE2" s="9"/>
-      <c r="EF2" s="9" t="s">
+      <c r="EB2" s="14"/>
+      <c r="EC2" s="14"/>
+      <c r="ED2" s="14"/>
+      <c r="EE2" s="14"/>
+      <c r="EF2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="EG2" s="9"/>
-      <c r="EH2" s="9"/>
-      <c r="EI2" s="9"/>
-      <c r="EJ2" s="9"/>
-      <c r="EK2" s="9" t="s">
+      <c r="EG2" s="14"/>
+      <c r="EH2" s="14"/>
+      <c r="EI2" s="14"/>
+      <c r="EJ2" s="14"/>
+      <c r="EK2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="EL2" s="9"/>
-      <c r="EM2" s="9"/>
-      <c r="EN2" s="9"/>
-      <c r="EO2" s="9"/>
-      <c r="EP2" s="9" t="s">
+      <c r="EL2" s="14"/>
+      <c r="EM2" s="14"/>
+      <c r="EN2" s="14"/>
+      <c r="EO2" s="14"/>
+      <c r="EP2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="EQ2" s="9"/>
-      <c r="ER2" s="9"/>
-      <c r="ES2" s="9"/>
-      <c r="ET2" s="9"/>
-      <c r="EU2" s="9" t="s">
+      <c r="EQ2" s="14"/>
+      <c r="ER2" s="14"/>
+      <c r="ES2" s="14"/>
+      <c r="ET2" s="14"/>
+      <c r="EU2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="EV2" s="9"/>
-      <c r="EW2" s="9"/>
-      <c r="EX2" s="9"/>
-      <c r="EY2" s="9"/>
-      <c r="EZ2" s="9" t="s">
+      <c r="EV2" s="14"/>
+      <c r="EW2" s="14"/>
+      <c r="EX2" s="14"/>
+      <c r="EY2" s="14"/>
+      <c r="EZ2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="FA2" s="9"/>
-      <c r="FB2" s="9"/>
-      <c r="FC2" s="9"/>
-      <c r="FD2" s="9"/>
-      <c r="FE2" s="9" t="s">
+      <c r="FA2" s="14"/>
+      <c r="FB2" s="14"/>
+      <c r="FC2" s="14"/>
+      <c r="FD2" s="14"/>
+      <c r="FE2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="FF2" s="9"/>
-      <c r="FG2" s="9"/>
-      <c r="FH2" s="9"/>
-      <c r="FI2" s="9"/>
-      <c r="FJ2" s="9" t="s">
+      <c r="FF2" s="14"/>
+      <c r="FG2" s="14"/>
+      <c r="FH2" s="14"/>
+      <c r="FI2" s="14"/>
+      <c r="FJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="FK2" s="9"/>
-      <c r="FL2" s="9"/>
-      <c r="FM2" s="9"/>
-      <c r="FN2" s="9"/>
-      <c r="FO2" s="9" t="s">
+      <c r="FK2" s="14"/>
+      <c r="FL2" s="14"/>
+      <c r="FM2" s="14"/>
+      <c r="FN2" s="14"/>
+      <c r="FO2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="FP2" s="9"/>
-      <c r="FQ2" s="9"/>
-      <c r="FR2" s="9"/>
-      <c r="FS2" s="9"/>
-      <c r="FT2" s="9" t="s">
+      <c r="FP2" s="14"/>
+      <c r="FQ2" s="14"/>
+      <c r="FR2" s="14"/>
+      <c r="FS2" s="14"/>
+      <c r="FT2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="FU2" s="9"/>
-      <c r="FV2" s="9"/>
-      <c r="FW2" s="9"/>
-      <c r="FX2" s="9"/>
-      <c r="FY2" s="9" t="s">
+      <c r="FU2" s="14"/>
+      <c r="FV2" s="14"/>
+      <c r="FW2" s="14"/>
+      <c r="FX2" s="14"/>
+      <c r="FY2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="FZ2" s="9"/>
-      <c r="GA2" s="9"/>
-      <c r="GB2" s="9"/>
-      <c r="GC2" s="9"/>
-      <c r="GD2" s="9" t="s">
+      <c r="FZ2" s="14"/>
+      <c r="GA2" s="14"/>
+      <c r="GB2" s="14"/>
+      <c r="GC2" s="14"/>
+      <c r="GD2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="GE2" s="9"/>
-      <c r="GF2" s="9"/>
-      <c r="GG2" s="9"/>
-      <c r="GH2" s="9"/>
-      <c r="GI2" s="9"/>
-      <c r="GJ2" s="9"/>
-      <c r="GK2" s="9"/>
-      <c r="GL2" s="9"/>
-      <c r="GM2" s="9"/>
-      <c r="GN2" s="9"/>
-      <c r="GO2" s="9"/>
-      <c r="GP2" s="9"/>
-      <c r="GQ2" s="9"/>
-      <c r="GR2" s="9"/>
-      <c r="GS2" s="9"/>
-      <c r="GT2" s="9"/>
-      <c r="GU2" s="9"/>
-      <c r="GV2" s="9"/>
-      <c r="GW2" s="9"/>
-      <c r="GX2" s="9"/>
-      <c r="GY2" s="9"/>
-      <c r="GZ2" s="9"/>
-      <c r="HA2" s="9"/>
-      <c r="HB2" s="9"/>
-      <c r="HC2" s="9"/>
-      <c r="HD2" s="9"/>
-      <c r="HE2" s="9"/>
-      <c r="HF2" s="9"/>
-      <c r="HG2" s="9"/>
-      <c r="HH2" s="9"/>
-      <c r="HI2" s="9"/>
-      <c r="HJ2" s="9"/>
-      <c r="HK2" s="9"/>
-      <c r="HL2" s="9"/>
-      <c r="HM2" s="9"/>
-      <c r="HN2" s="9"/>
-      <c r="HO2" s="9"/>
-      <c r="HP2" s="9"/>
-      <c r="HQ2" s="9"/>
-      <c r="HR2" s="9"/>
+      <c r="GE2" s="14"/>
+      <c r="GF2" s="14"/>
+      <c r="GG2" s="14"/>
+      <c r="GH2" s="14"/>
+      <c r="GI2" s="14"/>
+      <c r="GJ2" s="14"/>
+      <c r="GK2" s="14"/>
+      <c r="GL2" s="14"/>
+      <c r="GM2" s="14"/>
+      <c r="GN2" s="14"/>
+      <c r="GO2" s="14"/>
+      <c r="GP2" s="14"/>
+      <c r="GQ2" s="14"/>
+      <c r="GR2" s="14"/>
+      <c r="GS2" s="14"/>
+      <c r="GT2" s="14"/>
+      <c r="GU2" s="14"/>
+      <c r="GV2" s="14"/>
+      <c r="GW2" s="14"/>
+      <c r="GX2" s="14"/>
+      <c r="GY2" s="14"/>
+      <c r="GZ2" s="14"/>
+      <c r="HA2" s="14"/>
+      <c r="HB2" s="14"/>
+      <c r="HC2" s="14"/>
+      <c r="HD2" s="14"/>
+      <c r="HE2" s="14"/>
+      <c r="HF2" s="14"/>
+      <c r="HG2" s="14"/>
+      <c r="HH2" s="14"/>
+      <c r="HI2" s="14"/>
+      <c r="HJ2" s="14"/>
+      <c r="HK2" s="14"/>
+      <c r="HL2" s="14"/>
+      <c r="HM2" s="14"/>
+      <c r="HN2" s="14"/>
+      <c r="HO2" s="14"/>
+      <c r="HP2" s="14"/>
+      <c r="HQ2" s="14"/>
+      <c r="HR2" s="14"/>
     </row>
     <row r="3" spans="1:226" s="2" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
@@ -10523,12 +10523,59 @@
     <protectedRange algorithmName="SHA-512" hashValue="xIoe48RIQJJUwIXauJitcDLkf2ShWnwupbZwdgGEyvJKXza4ObVzCg7Q0JCLbBJSqotNJBRYh3JYA7eM9U8N5g==" saltValue="VBLjezGriRD3QIbJ2nASDg==" spinCount="100000" sqref="J1" name="Range1_2_1"/>
   </protectedRanges>
   <mergeCells count="75">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="HA1:HI2"/>
+    <mergeCell ref="HJ1:HR2"/>
+    <mergeCell ref="FO2:FS2"/>
+    <mergeCell ref="FT2:FX2"/>
+    <mergeCell ref="FY2:GC2"/>
+    <mergeCell ref="GD2:GH2"/>
+    <mergeCell ref="GR1:GZ2"/>
+    <mergeCell ref="GI1:GQ2"/>
+    <mergeCell ref="EP2:ET2"/>
+    <mergeCell ref="EU2:EY2"/>
+    <mergeCell ref="EZ2:FD2"/>
+    <mergeCell ref="FE2:FI2"/>
+    <mergeCell ref="FJ2:FN2"/>
+    <mergeCell ref="DS2:DV2"/>
+    <mergeCell ref="DW2:DZ2"/>
+    <mergeCell ref="EA2:EE2"/>
+    <mergeCell ref="EF2:EJ2"/>
+    <mergeCell ref="EK2:EO2"/>
+    <mergeCell ref="CY2:DB2"/>
+    <mergeCell ref="DC2:DF2"/>
+    <mergeCell ref="DG2:DJ2"/>
+    <mergeCell ref="DK2:DN2"/>
+    <mergeCell ref="DO2:DR2"/>
+    <mergeCell ref="CE2:CH2"/>
+    <mergeCell ref="CI2:CL2"/>
+    <mergeCell ref="CM2:CP2"/>
+    <mergeCell ref="CQ2:CT2"/>
+    <mergeCell ref="CU2:CX2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:D3"/>
@@ -10545,59 +10592,12 @@
     <mergeCell ref="BE2:BF2"/>
     <mergeCell ref="BG2:BH2"/>
     <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CH2"/>
-    <mergeCell ref="CI2:CL2"/>
-    <mergeCell ref="CM2:CP2"/>
-    <mergeCell ref="CQ2:CT2"/>
-    <mergeCell ref="CU2:CX2"/>
-    <mergeCell ref="CY2:DB2"/>
-    <mergeCell ref="DC2:DF2"/>
-    <mergeCell ref="DG2:DJ2"/>
-    <mergeCell ref="DK2:DN2"/>
-    <mergeCell ref="DO2:DR2"/>
-    <mergeCell ref="DS2:DV2"/>
-    <mergeCell ref="DW2:DZ2"/>
-    <mergeCell ref="EA2:EE2"/>
-    <mergeCell ref="EF2:EJ2"/>
-    <mergeCell ref="EK2:EO2"/>
-    <mergeCell ref="EP2:ET2"/>
-    <mergeCell ref="EU2:EY2"/>
-    <mergeCell ref="EZ2:FD2"/>
-    <mergeCell ref="FE2:FI2"/>
-    <mergeCell ref="FJ2:FN2"/>
-    <mergeCell ref="HA1:HI2"/>
-    <mergeCell ref="HJ1:HR2"/>
-    <mergeCell ref="FO2:FS2"/>
-    <mergeCell ref="FT2:FX2"/>
-    <mergeCell ref="FY2:GC2"/>
-    <mergeCell ref="GD2:GH2"/>
-    <mergeCell ref="GR1:GZ2"/>
-    <mergeCell ref="GI1:GQ2"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
